--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Planta Solar El Membrillar SpA</t>
         </is>
       </c>
       <c r="F6" t="n">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Planta Solar Los Lirios II SpA</t>
+          <t>PLANTA SOLAR LOS LIRIOS II SPA</t>
         </is>
       </c>
       <c r="F13" t="n">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>Héctor Felipe Larenas Saavedra</t>
         </is>
       </c>
       <c r="F200" t="n">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Héctor Felipe Larenas Saavedra</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Héctor Felipe Larenas Saavedra</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Héctor Felipe Larenas Saavedra</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Héctor Felipe Larenas Saavedra</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -9991,7 +9991,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Héctor Felipe Larenas Saavedra</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F201" t="n">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Prize Proservice S.A.</t>
+          <t>Prize Proservice SpA</t>
         </is>
       </c>
       <c r="F15" t="n">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -3615,7 +3615,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -3615,7 +3615,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>22/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de Riles y disposición en campo (e-seia)</t>
+          <t>MODIFICACIÓN DE LA PLANTA DE TRATAMIENTO DE RILES (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Viña San Isidro S.A.</t>
+          <t>Viñedos y Bodegas Córpora S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1747610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE LA PLANTA DE TRATAMIENTO DE RILES (e-seia)</t>
+          <t>Sistema de tratamiento de Riles y disposición en campo (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Viñedos y Bodegas Córpora S.A.</t>
+          <t>Viña San Isidro S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1747610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE LA PLANTA DE TRATAMIENTO DE RILES (e-seia)</t>
+          <t>Sistema de tratamiento de Riles y disposición en campo (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Viñedos y Bodegas Córpora S.A.</t>
+          <t>Viña San Isidro S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1747610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de Riles y disposición en campo (e-seia)</t>
+          <t>MODIFICACIÓN DE LA PLANTA DE TRATAMIENTO DE RILES (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Viña San Isidro S.A.</t>
+          <t>Viñedos y Bodegas Córpora S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1747610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>20/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Minera Valle Central S.A.</t>
+          <t>Colihues Energía S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Minera Valle Central S.A.</t>
+          <t>Colihues Energía S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Minera Valle Central S.A.</t>
+          <t>Colihues Energía S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Minera Valle Central S.A.</t>
+          <t>Colihues Energía S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Minera Valle Central S.A.</t>
+          <t>Colihues Energía S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Minera Valle Central S.A.</t>
+          <t>Colihues Energía S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Minera Valle Central S.A.</t>
+          <t>Colihues Energía S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">

--- a/data/Requinoa.xlsx
+++ b/data/Requinoa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Centro de Distribución y Planta de Semillas Requínoa</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4667929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Exportadora Unifrutti Traders SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes y Aguas servidas. Unifrutti Traders Ltda. Planta Requinoa (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Exportadora Unifrutti Traders SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1475476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
